--- a/excel2sbol/tests/test_files/pichia_comb_dev_compiler_sbol3_v004.xlsx
+++ b/excel2sbol/tests/test_files/pichia_comb_dev_compiler_sbol3_v004.xlsx
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">role_terms!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -22727,9 +22726,6 @@
     <t>Molecule Type</t>
   </si>
   <si>
-    <t>sbol_type</t>
-  </si>
-  <si>
     <t>molecule_types</t>
   </si>
   <si>
@@ -22841,6 +22837,9 @@
       </rPr>
       <t>$" "https:\/\/www.ncbi.nlm.nih.gov/nuccore/.*"</t>
     </r>
+  </si>
+  <si>
+    <t>sbol_types</t>
   </si>
 </sst>
 </file>
@@ -23211,42 +23210,99 @@
   </cellStyles>
   <dxfs count="47">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -23261,26 +23317,315 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -23545,59 +23890,6 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -23610,357 +23902,64 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -24003,7 +24002,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="A10:I16"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Sheet Name"/>
@@ -24021,56 +24020,56 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P17" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:P17"/>
   <tableColumns count="16">
-    <tableColumn id="16" name="Sheet Name" dataDxfId="20"/>
-    <tableColumn id="1" name="Column Name" dataDxfId="19"/>
-    <tableColumn id="2" name="SBOL Term" dataDxfId="18"/>
-    <tableColumn id="3" name="Namespace URL" dataDxfId="17"/>
-    <tableColumn id="17" name="Type" dataDxfId="16" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="Split On" dataDxfId="15"/>
-    <tableColumn id="6" name="Pattern" dataDxfId="14"/>
-    <tableColumn id="7" name="Tyto Lookup" dataDxfId="13"/>
-    <tableColumn id="8" name="Sheet Lookup" dataDxfId="12"/>
-    <tableColumn id="9" name="Replacement Lookup" dataDxfId="11"/>
-    <tableColumn id="10" name="Object_ID Lookup" dataDxfId="10"/>
-    <tableColumn id="11" name="Parent Lookup" dataDxfId="9"/>
-    <tableColumn id="12" name="Lookup Sheet Name" dataDxfId="8"/>
-    <tableColumn id="13" name="From Col" dataDxfId="7"/>
-    <tableColumn id="14" name="To Col" dataDxfId="6"/>
-    <tableColumn id="15" name="Ontology Name" dataDxfId="5"/>
+    <tableColumn id="16" name="Sheet Name" dataDxfId="38"/>
+    <tableColumn id="1" name="Column Name" dataDxfId="37"/>
+    <tableColumn id="2" name="SBOL Term" dataDxfId="36"/>
+    <tableColumn id="3" name="Namespace URL" dataDxfId="35"/>
+    <tableColumn id="17" name="Type" dataDxfId="34" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="Split On" dataDxfId="33"/>
+    <tableColumn id="6" name="Pattern" dataDxfId="32"/>
+    <tableColumn id="7" name="Tyto Lookup" dataDxfId="31"/>
+    <tableColumn id="8" name="Sheet Lookup" dataDxfId="30"/>
+    <tableColumn id="9" name="Replacement Lookup" dataDxfId="29"/>
+    <tableColumn id="10" name="Object_ID Lookup" dataDxfId="28"/>
+    <tableColumn id="11" name="Parent Lookup" dataDxfId="27"/>
+    <tableColumn id="12" name="Lookup Sheet Name" dataDxfId="26"/>
+    <tableColumn id="13" name="From Col" dataDxfId="25"/>
+    <tableColumn id="14" name="To Col" dataDxfId="24"/>
+    <tableColumn id="15" name="Ontology Name" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_14" displayName="Table_14" ref="A5:C7" headerRowDxfId="23" totalsRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_14" displayName="Table_14" ref="A5:C7" headerRowDxfId="22" totalsRowDxfId="19" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <tableColumns count="3">
-    <tableColumn id="1" name="Collection Name" dataDxfId="26"/>
-    <tableColumn id="16" name="SBOL Object Type" dataDxfId="25"/>
-    <tableColumn id="5" name="Description" dataDxfId="24"/>
+    <tableColumn id="1" name="Collection Name" dataDxfId="18"/>
+    <tableColumn id="16" name="SBOL Object Type" dataDxfId="17"/>
+    <tableColumn id="5" name="Description" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A4:L12" headerRowDxfId="30" totalsRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A4:L12" headerRowDxfId="15" totalsRowDxfId="12" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <tableColumns count="12">
-    <tableColumn id="1" name="Part Name" dataDxfId="42"/>
-    <tableColumn id="11" name="Collection" dataDxfId="41"/>
-    <tableColumn id="16" name="SBOL Object Type" dataDxfId="40"/>
-    <tableColumn id="12" name="Molecule Type" dataDxfId="39"/>
-    <tableColumn id="2" name="Role" dataDxfId="38"/>
-    <tableColumn id="15" name="Alteration" dataDxfId="37"/>
-    <tableColumn id="5" name="Part Description" dataDxfId="36"/>
-    <tableColumn id="6" name="Data Source Prefix" dataDxfId="35"/>
-    <tableColumn id="7" name="Data Source" dataDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Source Organism" dataDxfId="33"/>
-    <tableColumn id="10" name="Circular" dataDxfId="32"/>
-    <tableColumn id="13" name="Data Source Composite" dataDxfId="31">
+    <tableColumn id="1" name="Part Name" dataDxfId="11"/>
+    <tableColumn id="11" name="Collection" dataDxfId="10"/>
+    <tableColumn id="16" name="SBOL Object Type" dataDxfId="9"/>
+    <tableColumn id="12" name="Molecule Type" dataDxfId="8"/>
+    <tableColumn id="2" name="Role" dataDxfId="7"/>
+    <tableColumn id="15" name="Alteration" dataDxfId="6"/>
+    <tableColumn id="5" name="Part Description" dataDxfId="5"/>
+    <tableColumn id="6" name="Data Source Prefix" dataDxfId="4"/>
+    <tableColumn id="7" name="Data Source" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Source Organism" dataDxfId="2"/>
+    <tableColumn id="10" name="Circular" dataDxfId="1"/>
+    <tableColumn id="13" name="Data Source Composite" dataDxfId="0">
       <calculatedColumnFormula>Library!$H5&amp;":"&amp;Library!$I5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -24282,7 +24281,7 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -24314,7 +24313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="53" t="s">
         <v>7428</v>
       </c>
@@ -24351,7 +24350,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -24379,13 +24378,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>7585</v>
+        <v>7584</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -24430,7 +24429,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>7558</v>
+        <v>7557</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -25679,7 +25678,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -25881,7 +25880,7 @@
         <v>7556</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>7557</v>
+        <v>7588</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>7554</v>
@@ -25909,7 +25908,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="49" t="s">
-        <v>7558</v>
+        <v>7557</v>
       </c>
       <c r="N5" s="49" t="s">
         <v>7434</v>
@@ -25939,7 +25938,7 @@
         <v>7486</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>7587</v>
+        <v>7586</v>
       </c>
       <c r="H6" s="49" t="b">
         <v>1</v>
@@ -25974,10 +25973,10 @@
         <v>7537</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>7576</v>
+        <v>7575</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>7586</v>
+        <v>7585</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>7433</v>
@@ -26208,7 +26207,7 @@
         <v>7452</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>7587</v>
+        <v>7586</v>
       </c>
       <c r="H12" s="49" t="b">
         <v>0</v>
@@ -26256,7 +26255,7 @@
         <v>7452</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>7588</v>
+        <v>7587</v>
       </c>
       <c r="H13" s="49" t="b">
         <v>0</v>
@@ -26326,7 +26325,7 @@
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="47" t="s">
-        <v>7585</v>
+        <v>7584</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>0</v>
@@ -26366,7 +26365,7 @@
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
-        <v>7585</v>
+        <v>7584</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>7488</v>
@@ -26406,7 +26405,7 @@
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="47" t="s">
-        <v>7585</v>
+        <v>7584</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>7548</v>
@@ -26482,10 +26481,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:L17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26629,24 +26628,24 @@
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>7574</v>
+        <v>7573</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>7497</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>7583</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
-        <v>7575</v>
+        <v>7574</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>7497</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>7584</v>
+        <v>7583</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -27015,7 +27014,7 @@
   <dimension ref="A1:AA81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -27127,7 +27126,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>7576</v>
+        <v>7575</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>7</v>
@@ -27153,7 +27152,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>7574</v>
+        <v>7573</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>7491</v>
@@ -27165,10 +27164,10 @@
         <v>1653</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>7577</v>
+        <v>7576</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>7567</v>
+        <v>7566</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>16</v>
@@ -27192,7 +27191,7 @@
         <v>7529</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>7574</v>
+        <v>7573</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>7491</v>
@@ -27204,10 +27203,10 @@
         <v>1653</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>7580</v>
+        <v>7579</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>7568</v>
+        <v>7567</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>16</v>
@@ -27244,7 +27243,7 @@
         <v>7530</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>7574</v>
+        <v>7573</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>7491</v>
@@ -27256,10 +27255,10 @@
         <v>1653</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>7578</v>
+        <v>7577</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>7569</v>
+        <v>7568</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>16</v>
@@ -27296,7 +27295,7 @@
         <v>7531</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>7574</v>
+        <v>7573</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>7491</v>
@@ -27308,10 +27307,10 @@
         <v>1653</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>7582</v>
+        <v>7581</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>7570</v>
+        <v>7569</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>16</v>
@@ -27345,10 +27344,10 @@
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
-        <v>7565</v>
+        <v>7564</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>7575</v>
+        <v>7574</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>7491</v>
@@ -27361,7 +27360,7 @@
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="32" t="s">
-        <v>7573</v>
+        <v>7572</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>16</v>
@@ -27395,10 +27394,10 @@
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
-        <v>7566</v>
+        <v>7565</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>7575</v>
+        <v>7574</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>7491</v>
@@ -27411,7 +27410,7 @@
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="32" t="s">
-        <v>7566</v>
+        <v>7565</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>16</v>
@@ -27448,7 +27447,7 @@
         <v>7532</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>7574</v>
+        <v>7573</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>7491</v>
@@ -27460,10 +27459,10 @@
         <v>1653</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>7579</v>
+        <v>7578</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>7571</v>
+        <v>7570</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>16</v>
@@ -27500,7 +27499,7 @@
         <v>7533</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>7574</v>
+        <v>7573</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>7491</v>
@@ -27512,10 +27511,10 @@
         <v>1653</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>7581</v>
+        <v>7580</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>7572</v>
+        <v>7571</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>16</v>
@@ -27942,10 +27941,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>7559</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>7560</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>7561</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -27953,15 +27952,15 @@
         <v>1406</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>7562</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7559</v>
+        <v>7558</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>7564</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -27969,7 +27968,7 @@
         <v>5216</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>7563</v>
+        <v>7562</v>
       </c>
     </row>
   </sheetData>
